--- a/StaticData/__TestStaticData/__TestStaticData.xlsx
+++ b/StaticData/__TestStaticData/__TestStaticData.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\gitProject\Playground\StaticData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\gitProject\Playground\StaticData\__TestStaticData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBA5D7B-514B-4A76-A4E6-9A93CF2ACA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E2141D-9343-4CE1-8B8E-4487E905CB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="15900" windowWidth="28800" windowHeight="15900" activeTab="2" xr2:uid="{8EF6EFD5-36D8-4DAA-83AD-49C34620FFDD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15900" xr2:uid="{8EF6EFD5-36D8-4DAA-83AD-49C34620FFDD}"/>
   </bookViews>
   <sheets>
-    <sheet name="TargetTest" sheetId="6" r:id="rId1"/>
-    <sheet name="이름 매핑 테스트" sheetId="7" r:id="rId2"/>
-    <sheet name="ArrayTest" sheetId="8" r:id="rId3"/>
-    <sheet name="ClassListTest" sheetId="9" r:id="rId4"/>
-    <sheet name="ComplexTest" sheetId="10" r:id="rId5"/>
+    <sheet name="TypeTest" sheetId="11" r:id="rId1"/>
+    <sheet name="TargetTest" sheetId="6" r:id="rId2"/>
+    <sheet name="이름 매핑 테스트" sheetId="7" r:id="rId3"/>
+    <sheet name="ArrayTest" sheetId="8" r:id="rId4"/>
+    <sheet name="ClassListTest" sheetId="9" r:id="rId5"/>
+    <sheet name="ComplexTest" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="103">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -312,6 +313,139 @@
   </si>
   <si>
     <t>가장, 적은 요소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StringValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LongValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FloatValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoubleValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnumValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShortValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTimeValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeSpanValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIntValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>ISO 8601 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10675199.02:48:05.4775807</t>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1986-05-26T01:05:00+09:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.00:00:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1일 10초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-9223372036854775808</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9223372036854775807</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3.4028235E+38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4028235E+38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.7976931348623157E+308</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7976931348623157E+308</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-10675199.02:48:05.4775808</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🐅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999-12-31T23:59:59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001-01-01T00:00:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -319,7 +453,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,6 +468,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -358,8 +498,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -675,6 +821,192 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96FA1C8F-64AC-4876-BCED-2ABFBFBFF0A3}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C11" s="1">
+        <v>-2147483648</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-32768</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C12" s="1">
+        <v>1001</v>
+      </c>
+      <c r="D12" s="1">
+        <v>100</v>
+      </c>
+      <c r="E12" s="1">
+        <v>100</v>
+      </c>
+      <c r="F12" s="1">
+        <v>100</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3.1415926535896999</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C13" s="1">
+        <v>2147483647</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4294967295</v>
+      </c>
+      <c r="E13" s="1">
+        <v>32767</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D14217-DA1D-4A0E-95C5-DF7571E9F311}">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -791,7 +1123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE61F0A-2A9B-42B2-9650-BE3BA74EFD35}">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -901,12 +1233,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E367DE24-667E-4580-B063-F4ABC87A87AE}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1038,7 +1370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7BF872F-4979-41FA-BD82-57FC6B4507C3}">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -1172,7 +1504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174543E9-B391-4D37-900C-BEF349A5095A}">
   <dimension ref="A1:AD4"/>
   <sheetViews>

--- a/StaticData/__TestStaticData/__TestStaticData.xlsx
+++ b/StaticData/__TestStaticData/__TestStaticData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\gitProject\Playground\StaticData\__TestStaticData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E2141D-9343-4CE1-8B8E-4487E905CB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D844DC06-E73B-4D00-89A1-BDC52044096B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15900" xr2:uid="{8EF6EFD5-36D8-4DAA-83AD-49C34620FFDD}"/>
+    <workbookView xWindow="5595" yWindow="3990" windowWidth="24885" windowHeight="13125" tabRatio="728" activeTab="7" xr2:uid="{8EF6EFD5-36D8-4DAA-83AD-49C34620FFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="TypeTest" sheetId="11" r:id="rId1"/>
@@ -19,6 +19,10 @@
     <sheet name="ArrayTest" sheetId="8" r:id="rId4"/>
     <sheet name="ClassListTest" sheetId="9" r:id="rId5"/>
     <sheet name="ComplexTest" sheetId="10" r:id="rId6"/>
+    <sheet name="GroupedItemTest" sheetId="15" r:id="rId7"/>
+    <sheet name="GroupTest" sheetId="14" r:id="rId8"/>
+    <sheet name="ForeignTest" sheetId="12" r:id="rId9"/>
+    <sheet name="MultiForeignTest" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="116">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -446,6 +450,58 @@
   </si>
   <si>
     <t>0001-01-01T00:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetTestId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생이 없을수도 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생이 있을수도 있고,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중첩 외례키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -825,8 +881,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1006,12 +1062,72 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E74089A-0B64-4FC0-A9B6-6D08A210D2C3}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>5000</v>
+      </c>
+      <c r="E6">
+        <v>1001</v>
+      </c>
+      <c r="F6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>5001</v>
+      </c>
+      <c r="E7">
+        <v>1003</v>
+      </c>
+      <c r="F7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D14217-DA1D-4A0E-95C5-DF7571E9F311}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1375,7 +1491,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1795,4 +1911,223 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D7E8BC-0791-4D1A-A8B0-FC1408DB4B17}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1001001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1001002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1001003</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1002001</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1002002</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>2002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E448638-6836-43FB-A862-3209DFF7B2F0}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>1001</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1002</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98ECDB4-E5F0-4E0C-888A-570230B05F89}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>1001</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>20220001</v>
+      </c>
+      <c r="G10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>1002</v>
+      </c>
+      <c r="D11">
+        <v>102</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>1003</v>
+      </c>
+      <c r="D12">
+        <v>104</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>20220002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/StaticData/__TestStaticData/__TestStaticData.xlsx
+++ b/StaticData/__TestStaticData/__TestStaticData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\gitProject\Playground\StaticData\__TestStaticData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D844DC06-E73B-4D00-89A1-BDC52044096B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17364F87-58CF-4B17-AD20-10F295D7822A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5595" yWindow="3990" windowWidth="24885" windowHeight="13125" tabRatio="728" activeTab="7" xr2:uid="{8EF6EFD5-36D8-4DAA-83AD-49C34620FFDD}"/>
+    <workbookView xWindow="29835" yWindow="1830" windowWidth="24885" windowHeight="13125" tabRatio="728" activeTab="7" xr2:uid="{8EF6EFD5-36D8-4DAA-83AD-49C34620FFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="TypeTest" sheetId="11" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="116">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1918,7 +1918,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1943,8 +1943,8 @@
       <c r="A8">
         <v>1001001</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
+      <c r="B8">
+        <v>1</v>
       </c>
       <c r="C8">
         <v>1001</v>
@@ -1954,8 +1954,8 @@
       <c r="A9">
         <v>1001002</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
+      <c r="B9">
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1002</v>
@@ -1965,8 +1965,8 @@
       <c r="A10">
         <v>1001003</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
+      <c r="B10">
+        <v>1</v>
       </c>
       <c r="C10">
         <v>1003</v>
@@ -1976,8 +1976,8 @@
       <c r="A11">
         <v>1002001</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
+      <c r="B11">
+        <v>2</v>
       </c>
       <c r="C11">
         <v>2001</v>
@@ -1987,8 +1987,8 @@
       <c r="A12">
         <v>1002002</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
+      <c r="B12">
+        <v>2</v>
       </c>
       <c r="C12">
         <v>2002</v>
@@ -2005,7 +2005,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2027,16 +2027,16 @@
       <c r="C3">
         <v>1001</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
+      <c r="D3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>1002</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
+      <c r="D4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/StaticData/__TestStaticData/__TestStaticData.xlsx
+++ b/StaticData/__TestStaticData/__TestStaticData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\gitProject\Playground\StaticData\__TestStaticData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E2141D-9343-4CE1-8B8E-4487E905CB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17364F87-58CF-4B17-AD20-10F295D7822A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15900" xr2:uid="{8EF6EFD5-36D8-4DAA-83AD-49C34620FFDD}"/>
+    <workbookView xWindow="29835" yWindow="1830" windowWidth="24885" windowHeight="13125" tabRatio="728" activeTab="7" xr2:uid="{8EF6EFD5-36D8-4DAA-83AD-49C34620FFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="TypeTest" sheetId="11" r:id="rId1"/>
@@ -19,6 +19,10 @@
     <sheet name="ArrayTest" sheetId="8" r:id="rId4"/>
     <sheet name="ClassListTest" sheetId="9" r:id="rId5"/>
     <sheet name="ComplexTest" sheetId="10" r:id="rId6"/>
+    <sheet name="GroupedItemTest" sheetId="15" r:id="rId7"/>
+    <sheet name="GroupTest" sheetId="14" r:id="rId8"/>
+    <sheet name="ForeignTest" sheetId="12" r:id="rId9"/>
+    <sheet name="MultiForeignTest" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="116">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -446,6 +450,58 @@
   </si>
   <si>
     <t>0001-01-01T00:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetTestId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생이 없을수도 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생이 있을수도 있고,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중첩 외례키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -825,8 +881,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1006,12 +1062,72 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E74089A-0B64-4FC0-A9B6-6D08A210D2C3}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>5000</v>
+      </c>
+      <c r="E6">
+        <v>1001</v>
+      </c>
+      <c r="F6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>5001</v>
+      </c>
+      <c r="E7">
+        <v>1003</v>
+      </c>
+      <c r="F7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D14217-DA1D-4A0E-95C5-DF7571E9F311}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1375,7 +1491,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1795,4 +1911,223 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D7E8BC-0791-4D1A-A8B0-FC1408DB4B17}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1001001</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1001002</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1001003</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1002001</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1002002</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>2002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E448638-6836-43FB-A862-3209DFF7B2F0}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>1001</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1002</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98ECDB4-E5F0-4E0C-888A-570230B05F89}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>1001</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>20220001</v>
+      </c>
+      <c r="G10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>1002</v>
+      </c>
+      <c r="D11">
+        <v>102</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>1003</v>
+      </c>
+      <c r="D12">
+        <v>104</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>20220002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/StaticData/__TestStaticData/__TestStaticData.xlsx
+++ b/StaticData/__TestStaticData/__TestStaticData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\gitProject\Playground\StaticData\__TestStaticData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17364F87-58CF-4B17-AD20-10F295D7822A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC80575D-06A6-4992-9CD4-46BBA70AD0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29835" yWindow="1830" windowWidth="24885" windowHeight="13125" tabRatio="728" activeTab="7" xr2:uid="{8EF6EFD5-36D8-4DAA-83AD-49C34620FFDD}"/>
+    <workbookView xWindow="29835" yWindow="1830" windowWidth="24885" windowHeight="13125" tabRatio="728" activeTab="9" xr2:uid="{8EF6EFD5-36D8-4DAA-83AD-49C34620FFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="TypeTest" sheetId="11" r:id="rId1"/>
@@ -481,10 +481,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>중첩 외례키</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -502,6 +498,10 @@
   </si>
   <si>
     <t>C2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중첩 외래키</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1066,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E74089A-0B64-4FC0-A9B6-6D08A210D2C3}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1080,7 +1080,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1102,7 +1102,7 @@
         <v>1001</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1113,7 +1113,7 @@
         <v>1003</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1918,14 +1918,14 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
         <v>103</v>
@@ -2004,7 +2004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E448638-6836-43FB-A862-3209DFF7B2F0}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -2012,7 +2012,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2050,7 +2050,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
